--- a/PAGO DE ANTORCHA 2026.xlsx
+++ b/PAGO DE ANTORCHA 2026.xlsx
@@ -1,45 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\Iglesia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junio\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D2C03B-777E-4A70-BC3B-E4254777853A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B84FB41B-B5EA-4F1C-92CF-13E9C2173203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5DB2237C-CAC5-498A-B46F-2DE3B7B097F5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B996E3B9-FF14-4245-8A1E-AD3F25819F93}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$1:$L$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$1:$M$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="138">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -74,6 +63,9 @@
     <t>Fecha de pago</t>
   </si>
   <si>
+    <t>Solo si el pago es por Niubiz (Indicar Codigo de autorización):</t>
+  </si>
+  <si>
     <t>Matrimonios Jóvenes</t>
   </si>
   <si>
@@ -95,6 +87,9 @@
     <t xml:space="preserve">Rojas Márquez </t>
   </si>
   <si>
+    <t>Hoss y Anghela</t>
+  </si>
+  <si>
     <t xml:space="preserve">Heyden </t>
   </si>
   <si>
@@ -137,9 +132,6 @@
     <t>Rubiños</t>
   </si>
   <si>
-    <t>Hoss y Anghela</t>
-  </si>
-  <si>
     <t xml:space="preserve">Richard Junior </t>
   </si>
   <si>
@@ -164,7 +156,7 @@
     <t>006298</t>
   </si>
   <si>
-    <t xml:space="preserve">Valeria Alarcón </t>
+    <t xml:space="preserve">Aarón y Valeria Montoya / Daniel y Jhossy Arenas </t>
   </si>
   <si>
     <t xml:space="preserve">Sandy Marilyn </t>
@@ -228,6 +220,228 @@
   </si>
   <si>
     <t>Ramos Otero</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pino </t>
+  </si>
+  <si>
+    <t>+56 9 5226 3514</t>
+  </si>
+  <si>
+    <t>BCP (193-1124842039)</t>
+  </si>
+  <si>
+    <t>00361379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90 Dólares </t>
+  </si>
+  <si>
+    <t>DOLARES</t>
+  </si>
+  <si>
+    <t>Stephanie</t>
+  </si>
+  <si>
+    <t>Aceituno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90 dólares </t>
+  </si>
+  <si>
+    <t>Noemi</t>
+  </si>
+  <si>
+    <t>Alvarez</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Pino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brenda </t>
+  </si>
+  <si>
+    <t>General (Precio Normal S/. 160)</t>
+  </si>
+  <si>
+    <t>Cyndi Elizabeth</t>
+  </si>
+  <si>
+    <t>Gonzales Loaiza de Vargas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estefany </t>
+  </si>
+  <si>
+    <t>Villanueva Camarena</t>
+  </si>
+  <si>
+    <t>Milagros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Velarde Chiroque </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huber Percy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rojas Alburqueque </t>
+  </si>
+  <si>
+    <t>Deysi Alexandra</t>
+  </si>
+  <si>
+    <t>Dominguez Zurita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cesia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nieves </t>
+  </si>
+  <si>
+    <t>001338</t>
+  </si>
+  <si>
+    <t>Cesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aarón </t>
+  </si>
+  <si>
+    <t>Montoya</t>
+  </si>
+  <si>
+    <t>+51 980 954 014</t>
+  </si>
+  <si>
+    <t>Valeria</t>
+  </si>
+  <si>
+    <t>Alarcón</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>05643513</t>
+  </si>
+  <si>
+    <t>90 dólares</t>
+  </si>
+  <si>
+    <t>Gabriela</t>
+  </si>
+  <si>
+    <t>García</t>
+  </si>
+  <si>
+    <t>999 250 499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Infantes y Milagros Velarde </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roberto </t>
+  </si>
+  <si>
+    <t>Maravi Basilio</t>
+  </si>
+  <si>
+    <t>Jefferson Manuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meza Pérez </t>
+  </si>
+  <si>
+    <t>Angélica Maria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ponce Paz </t>
+  </si>
+  <si>
+    <t>Josué Elías</t>
+  </si>
+  <si>
+    <t>Guerrero Cárdenas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriela </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brenis Rivera </t>
+  </si>
+  <si>
+    <t>Astri Carolina</t>
+  </si>
+  <si>
+    <t>Díaz Huaman</t>
+  </si>
+  <si>
+    <t>Cynthia</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>Leoncio y luz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anggelo </t>
+  </si>
+  <si>
+    <t>Del águila rodriguez</t>
+  </si>
+  <si>
+    <t>04589352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roxana </t>
+  </si>
+  <si>
+    <t>Escarate cordova</t>
+  </si>
+  <si>
+    <t>04632377</t>
+  </si>
+  <si>
+    <t>Thiago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Del águila García </t>
+  </si>
+  <si>
+    <t>04668111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodrigo </t>
+  </si>
+  <si>
+    <t>Sanchez escarate</t>
+  </si>
+  <si>
+    <t>04712009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edduy Cotrina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renzo Giovanni </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estrada Lavilla </t>
+  </si>
+  <si>
+    <t>+51 962 744 806</t>
+  </si>
+  <si>
+    <t>Jhonatan, Vanesa / César y Cindy</t>
   </si>
 </sst>
 </file>
@@ -237,24 +451,32 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -334,47 +556,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="19" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="19" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="19" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="19" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="19" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="19" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,9 +620,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -403,39 +630,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -487,7 +714,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -539,7 +766,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -598,6 +825,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -606,13 +840,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -677,114 +904,97 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3C74A9-8E39-499C-8953-3288714DDCA5}">
-  <dimension ref="B1:L19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5767627F-81A0-419A-8D1D-85D695D9EE17}">
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" customWidth="1"/>
-    <col min="5" max="6" width="14.81640625" customWidth="1"/>
-    <col min="8" max="8" width="26.81640625" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="18.36328125" customWidth="1"/>
+    <col min="3" max="3" width="21.7265625" customWidth="1"/>
+    <col min="4" max="4" width="44.90625" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.90625" customWidth="1"/>
+    <col min="9" max="9" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="2:13" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M1" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B2" s="1">
         <v>46007.692080821755</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2">
         <v>954958479</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" s="3">
         <v>0.18888888889341615</v>
@@ -795,31 +1005,32 @@
       <c r="L2" s="4">
         <v>46007</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B3" s="1">
         <v>46007.695688946755</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2">
         <v>948844652</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" s="3">
         <v>0.19236111111240461</v>
@@ -830,31 +1041,32 @@
       <c r="L3" s="4">
         <v>46007</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>46020.91145929398</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2">
         <v>933760214</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="5">
         <v>0.40833333333284827</v>
@@ -865,31 +1077,32 @@
       <c r="L4" s="4">
         <v>46020</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>46020.913225428245</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2">
         <v>933760745</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" s="5">
         <v>0.40902777777955635</v>
@@ -900,31 +1113,32 @@
       <c r="L5" s="4">
         <v>46020</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>46021.551008726849</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2">
         <v>931703437</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6" s="5">
         <v>4.9305555556202307E-2</v>
@@ -935,31 +1149,32 @@
       <c r="L6" s="4">
         <v>46021</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>46021.554058981477</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2">
         <v>931703437</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J7" s="5">
         <v>5.1388888889050577E-2</v>
@@ -970,31 +1185,32 @@
       <c r="L7" s="4">
         <v>46021</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>46021.637285682868</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G8" s="2">
         <v>975445688</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" s="5">
         <v>0.63055555555911269</v>
@@ -1005,31 +1221,32 @@
       <c r="L8" s="4">
         <v>46021</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
         <v>46021.638594386575</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G9" s="2">
         <v>988544317</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J9" s="5">
         <v>0.63194444444525288</v>
@@ -1040,34 +1257,35 @@
       <c r="L9" s="4">
         <v>46021</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <v>46021.639919525463</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" s="2">
         <v>920648559</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K10" s="2">
         <v>280</v>
@@ -1075,34 +1293,37 @@
       <c r="L10" s="4">
         <v>46021</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M10" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <v>46021.642686053237</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2">
         <v>968533794</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K11" s="2">
         <v>280</v>
@@ -1110,31 +1331,34 @@
       <c r="L11" s="4">
         <v>46021</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M11" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
         <v>46021.799832384262</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12" s="2">
         <v>954749632</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J12" s="5">
         <v>0.79444444444379769</v>
@@ -1145,31 +1369,34 @@
       <c r="L12" s="4">
         <v>46021</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M12" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <v>46021.802581875003</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G13" s="2">
         <v>934273463</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J13" s="5">
         <v>0.79444444444379769</v>
@@ -1180,31 +1407,34 @@
       <c r="L13" s="4">
         <v>46021</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M13" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>46027.893309212959</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G14" s="2">
         <v>978525014</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J14" s="5">
         <v>0.39027777777664596</v>
@@ -1215,31 +1445,32 @@
       <c r="L14" s="4">
         <v>46027</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <v>46027.894472835644</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G15" s="2">
         <v>978525014</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J15" s="5">
         <v>0.39027777777664596</v>
@@ -1250,31 +1481,32 @@
       <c r="L15" s="4">
         <v>46027</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B16" s="1">
         <v>46030.595177152776</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J16" s="5">
         <v>0.54513888889050577</v>
@@ -1285,31 +1517,32 @@
       <c r="L16" s="4">
         <v>46030</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
         <v>46043.38510201389</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G17" s="2">
         <v>905444826</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J17" s="5">
         <v>0.38055555555911269</v>
@@ -1320,31 +1553,32 @@
       <c r="L17" s="4">
         <v>46043</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18" s="1">
         <v>46049.783087291667</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G18" s="2">
         <v>980497400</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J18" s="5">
         <v>0.78125</v>
@@ -1355,43 +1589,1238 @@
       <c r="L18" s="4">
         <v>46049</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B19" s="7">
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B19" s="1">
         <v>46049.783924085648</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>11</v>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="2">
+        <v>986677661</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="8">
-        <v>986677661</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="9">
+      <c r="I19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="5">
         <v>0.78125</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="2">
         <v>220</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="4">
         <v>46049</v>
       </c>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B20" s="1">
+        <v>46051.321348703699</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" s="4">
+        <v>46051</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B21" s="1">
+        <v>46051.322371967588</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L21" s="4">
+        <v>46051</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B22" s="1">
+        <v>46051.323353622683</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L22" s="4">
+        <v>46051</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B23" s="1">
+        <v>46051.32447792824</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23" s="4">
+        <v>46051</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B24" s="1">
+        <v>46053.420215092592</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="2">
+        <v>940321957</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="2">
+        <v>181416708</v>
+      </c>
+      <c r="K24" s="2">
+        <v>160</v>
+      </c>
+      <c r="L24" s="4">
+        <v>46053</v>
+      </c>
+      <c r="M24" s="7">
+        <v>181416708</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B25" s="1">
+        <v>46053.517042372681</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="2">
+        <v>920840583</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.51458333333721384</v>
+      </c>
+      <c r="K25" s="2">
+        <v>160</v>
+      </c>
+      <c r="L25" s="4">
+        <v>46053</v>
+      </c>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B26" s="1">
+        <v>46053.604639363424</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="2">
+        <v>932408596</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.59999999999854481</v>
+      </c>
+      <c r="K26" s="2">
+        <v>160</v>
+      </c>
+      <c r="L26" s="4">
+        <v>46053</v>
+      </c>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B27" s="1">
+        <v>46054.355272187502</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="2">
+        <v>939109963</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.35208333333139308</v>
+      </c>
+      <c r="K27" s="2">
+        <v>160</v>
+      </c>
+      <c r="L27" s="4">
+        <v>46054</v>
+      </c>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B28" s="1">
+        <v>46054.391512766204</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" s="2">
+        <v>966044768</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.37638888889341615</v>
+      </c>
+      <c r="K28" s="2">
+        <v>190</v>
+      </c>
+      <c r="L28" s="4">
+        <v>46054</v>
+      </c>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B29" s="1">
+        <v>46054.48283760417</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="2">
+        <v>990832501</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0.37708333333284827</v>
+      </c>
+      <c r="K29" s="2">
+        <v>190</v>
+      </c>
+      <c r="L29" s="4">
+        <v>46054</v>
+      </c>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B30" s="1">
+        <v>46055.747967615738</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K30" s="2">
+        <v>190</v>
+      </c>
+      <c r="L30" s="4">
+        <v>46055</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B31" s="1">
+        <v>46055.749958912042</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K31" s="2">
+        <v>160</v>
+      </c>
+      <c r="L31" s="4">
+        <v>46055</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B32" s="1">
+        <v>46055.751235324075</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K32" s="2">
+        <v>160</v>
+      </c>
+      <c r="L32" s="4">
+        <v>46055</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B33" s="1">
+        <v>46055.751989988421</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K33" s="2">
+        <v>160</v>
+      </c>
+      <c r="L33" s="4">
+        <v>46055</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B34" s="1">
+        <v>46055.752849641205</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K34" s="2">
+        <v>160</v>
+      </c>
+      <c r="L34" s="4">
+        <v>46055</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B35" s="1">
+        <v>46055.753706979165</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K35" s="2">
+        <v>160</v>
+      </c>
+      <c r="L35" s="4">
+        <v>46055</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B36" s="1">
+        <v>46055.892387442131</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J36" s="2">
+        <v>27984</v>
+      </c>
+      <c r="K36" s="2">
+        <v>190</v>
+      </c>
+      <c r="L36" s="4">
+        <v>46055</v>
+      </c>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B37" s="1">
+        <v>46055.893700416666</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" s="2">
+        <v>987013444</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J37" s="7">
+        <v>37020</v>
+      </c>
+      <c r="K37" s="2">
+        <v>160</v>
+      </c>
+      <c r="L37" s="4">
+        <v>46055</v>
+      </c>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B38" s="1">
+        <v>46056.42993878472</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K38" s="2">
+        <v>160</v>
+      </c>
+      <c r="L38" s="4">
+        <v>46055</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B39" s="1">
+        <v>46056.452936469912</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L39" s="4">
+        <v>46009</v>
+      </c>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B40" s="1">
+        <v>46056.454702361109</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L40" s="4">
+        <v>46009</v>
+      </c>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B41" s="1">
+        <v>46056.902349687502</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G41" s="2">
+        <v>945915713</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0.89097222222335404</v>
+      </c>
+      <c r="K41" s="2">
+        <v>160</v>
+      </c>
+      <c r="L41" s="4">
+        <v>46056</v>
+      </c>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B42" s="1">
+        <v>46057.888812511577</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" s="2">
+        <v>957332264</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0.88333333333139308</v>
+      </c>
+      <c r="K42" s="2">
+        <v>160</v>
+      </c>
+      <c r="L42" s="4">
+        <v>46057</v>
+      </c>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B43" s="1">
+        <v>46057.891412268524</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G43" s="2">
+        <v>997681766</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0.882638888884685</v>
+      </c>
+      <c r="K43" s="2">
+        <v>160</v>
+      </c>
+      <c r="L43" s="4">
+        <v>46057</v>
+      </c>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B44" s="1">
+        <v>46058.598135358799</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G44" s="2">
+        <v>960177815</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="K44" s="2">
+        <v>190</v>
+      </c>
+      <c r="L44" s="4">
+        <v>46058</v>
+      </c>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B45" s="1">
+        <v>46058.686439363424</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G45" s="2">
+        <v>987538098</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0.18055555555474712</v>
+      </c>
+      <c r="K45" s="2">
+        <v>160</v>
+      </c>
+      <c r="L45" s="4">
+        <v>46058</v>
+      </c>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B46" s="1">
+        <v>46059.730691504628</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G46" s="2">
+        <v>919516351</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0.71527777778101154</v>
+      </c>
+      <c r="K46" s="2">
+        <v>160</v>
+      </c>
+      <c r="L46" s="4">
+        <v>46059</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B47" s="1">
+        <v>46059.748286770831</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G47" s="2">
+        <v>990130187</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0.73263888889050577</v>
+      </c>
+      <c r="K47" s="2">
+        <v>160</v>
+      </c>
+      <c r="L47" s="4">
+        <v>46059</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B48" s="1">
+        <v>46060.783655844905</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G48" s="2">
+        <v>977530032</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="K48" s="2">
+        <v>220</v>
+      </c>
+      <c r="L48" s="4">
+        <v>46060</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B49" s="1">
+        <v>46060.787314155095</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G49" s="2">
+        <v>977530032</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="K49" s="2">
+        <v>220</v>
+      </c>
+      <c r="L49" s="4">
+        <v>46060</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B50" s="1">
+        <v>46060.790379027778</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G50" s="2">
+        <v>977530032</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K50" s="2">
+        <v>220</v>
+      </c>
+      <c r="L50" s="4">
+        <v>46060</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B51" s="1">
+        <v>46060.79605542824</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G51" s="2">
+        <v>977530032</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K51" s="2">
+        <v>220</v>
+      </c>
+      <c r="L51" s="4">
+        <v>46060</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B52" s="8">
+        <v>46061.661082650462</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="10">
+        <v>0.65625</v>
+      </c>
+      <c r="K52" s="9">
+        <v>160</v>
+      </c>
+      <c r="L52" s="11">
+        <v>46061</v>
+      </c>
+      <c r="M52" s="12"/>
     </row>
   </sheetData>
+  <autoFilter ref="B1:M52" xr:uid="{5767627F-81A0-419A-8D1D-85D695D9EE17}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>